--- a/data/trans_orig/P64-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P64-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{394631F3-DC6E-47CA-BE28-E903A0CF3495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A95782B3-F908-4BAE-B82C-61765A422F57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E8C9789F-D998-420D-970D-AC7FD7B8A845}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{93364DF4-A781-4585-A261-11DE9324F6E2}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1856" uniqueCount="1016">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1856" uniqueCount="1015">
   <si>
     <t>Población según el contrato de trabajo que tienen en 2007 (Tasa respuesta: 42,88%)</t>
   </si>
@@ -2549,544 +2549,541 @@
     <t>Población según el contrato de trabajo que tienen en 2023 (Tasa respuesta: 41,9%)</t>
   </si>
   <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>45,52%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>41,68%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>49,65%</t>
+  </si>
+  <si>
+    <t>40,08%</t>
+  </si>
+  <si>
+    <t>59,25%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>45,1%</t>
+  </si>
+  <si>
+    <t>43,73%</t>
+  </si>
+  <si>
+    <t>36,34%</t>
+  </si>
+  <si>
+    <t>50,9%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>54,7%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>40,26%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>48,87%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>60,47%</t>
+  </si>
+  <si>
+    <t>53,52%</t>
+  </si>
+  <si>
+    <t>40,65%</t>
+  </si>
+  <si>
+    <t>59,1%</t>
+  </si>
+  <si>
+    <t>50,75%</t>
+  </si>
+  <si>
+    <t>36,44%</t>
+  </si>
+  <si>
+    <t>58,13%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>51,67%</t>
+  </si>
+  <si>
+    <t>46,28%</t>
+  </si>
+  <si>
+    <t>56,84%</t>
+  </si>
+  <si>
+    <t>53,09%</t>
+  </si>
+  <si>
+    <t>48,59%</t>
+  </si>
+  <si>
+    <t>57,01%</t>
+  </si>
+  <si>
+    <t>52,38%</t>
+  </si>
+  <si>
+    <t>49,08%</t>
+  </si>
+  <si>
+    <t>55,98%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
   </si>
   <si>
     <t>2,41%</t>
   </si>
   <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>48,66%</t>
-  </si>
-  <si>
-    <t>39,59%</t>
-  </si>
-  <si>
-    <t>57,9%</t>
-  </si>
-  <si>
-    <t>33,79%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>44,58%</t>
-  </si>
-  <si>
-    <t>42,62%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>49,5%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>57,03%</t>
-  </si>
-  <si>
-    <t>48,69%</t>
-  </si>
-  <si>
-    <t>61,09%</t>
-  </si>
-  <si>
-    <t>55,49%</t>
-  </si>
-  <si>
-    <t>51,7%</t>
-  </si>
-  <si>
-    <t>58,82%</t>
-  </si>
-  <si>
-    <t>56,37%</t>
-  </si>
-  <si>
-    <t>51,82%</t>
-  </si>
-  <si>
-    <t>58,95%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>50,96%</t>
-  </si>
-  <si>
-    <t>45,44%</t>
-  </si>
-  <si>
-    <t>55,73%</t>
-  </si>
-  <si>
-    <t>52,81%</t>
-  </si>
-  <si>
-    <t>48,32%</t>
-  </si>
-  <si>
-    <t>56,72%</t>
-  </si>
-  <si>
-    <t>51,9%</t>
-  </si>
-  <si>
-    <t>48,75%</t>
-  </si>
-  <si>
-    <t>55,23%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
+    <t>45,57%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>33,43%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
   </si>
   <si>
     <t>4,29%</t>
   </si>
   <si>
-    <t>3,69%</t>
-  </si>
-  <si>
     <t>4,75%</t>
   </si>
   <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>54,9%</t>
-  </si>
-  <si>
-    <t>48,85%</t>
-  </si>
-  <si>
-    <t>57,73%</t>
-  </si>
-  <si>
-    <t>53,33%</t>
-  </si>
-  <si>
-    <t>50,47%</t>
-  </si>
-  <si>
-    <t>55,96%</t>
-  </si>
-  <si>
-    <t>54,19%</t>
-  </si>
-  <si>
-    <t>51,24%</t>
-  </si>
-  <si>
-    <t>56,31%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>49,56%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>57,25%</t>
+  </si>
+  <si>
+    <t>52,31%</t>
+  </si>
+  <si>
+    <t>45,02%</t>
+  </si>
+  <si>
+    <t>56,51%</t>
+  </si>
+  <si>
+    <t>50,73%</t>
+  </si>
+  <si>
+    <t>37,6%</t>
+  </si>
+  <si>
+    <t>56,16%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
   </si>
 </sst>
 </file>
@@ -3498,7 +3495,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76B8A6A5-84A0-4340-8B67-ECD315E9A20A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5C0AA5D-F99B-4760-BD86-3E2CB7E7F95A}">
   <dimension ref="A1:Q48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -5285,7 +5282,7 @@
         <v>665</v>
       </c>
       <c r="N36" s="7">
-        <v>693878</v>
+        <v>693877</v>
       </c>
       <c r="O36" s="7" t="s">
         <v>105</v>
@@ -5881,7 +5878,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{648A2D97-E1D0-485D-8D79-B534FF01DE00}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10E2C2EE-E4FC-42AD-9A61-0D7023A32632}">
   <dimension ref="A1:Q48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7823,7 +7820,7 @@
         <v>248</v>
       </c>
       <c r="N39" s="7">
-        <v>263111</v>
+        <v>263110</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>559</v>
@@ -8231,7 +8228,7 @@
         <v>2185</v>
       </c>
       <c r="N47" s="7">
-        <v>2342210</v>
+        <v>2342209</v>
       </c>
       <c r="O47" s="7" t="s">
         <v>105</v>
@@ -8264,7 +8261,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{789B0B9B-3D08-498E-8D83-C2D9A0685D99}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F67253A1-482C-4E30-8AD5-21CBA90BA8B3}">
   <dimension ref="A1:Q48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10647,7 +10644,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{851DD118-7A81-4EE2-892D-EFD8F8DC37B3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DFFF3FE-6A74-48DE-A702-854A9AB221BB}">
   <dimension ref="A1:Q48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10768,46 +10765,46 @@
         <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>2225</v>
+        <v>2152</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>141</v>
+        <v>737</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>44</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>638</v>
+        <v>701</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
       </c>
       <c r="I4" s="7">
-        <v>2393</v>
+        <v>2311</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>416</v>
+        <v>21</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>42</v>
+        <v>279</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>836</v>
+        <v>59</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
       </c>
       <c r="N4" s="7">
-        <v>4618</v>
+        <v>4463</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>436</v>
+        <v>836</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>487</v>
+        <v>217</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>837</v>
+        <v>311</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -10819,13 +10816,13 @@
         <v>9</v>
       </c>
       <c r="D5" s="7">
-        <v>9201</v>
+        <v>7966</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>837</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>838</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>273</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>839</v>
@@ -10834,31 +10831,31 @@
         <v>23</v>
       </c>
       <c r="I5" s="7">
-        <v>22578</v>
+        <v>18671</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>840</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>610</v>
+        <v>841</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="M5" s="7">
         <v>32</v>
       </c>
       <c r="N5" s="7">
-        <v>31779</v>
+        <v>26637</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -10870,46 +10867,46 @@
         <v>19</v>
       </c>
       <c r="D6" s="7">
-        <v>14974</v>
+        <v>15607</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>845</v>
+        <v>724</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>697</v>
+        <v>846</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="H6" s="7">
         <v>8</v>
       </c>
       <c r="I6" s="7">
-        <v>5727</v>
+        <v>5284</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>686</v>
+        <v>849</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>826</v>
+        <v>850</v>
       </c>
       <c r="M6" s="7">
         <v>27</v>
       </c>
       <c r="N6" s="7">
-        <v>20701</v>
+        <v>20891</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>848</v>
+        <v>851</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>638</v>
+        <v>852</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>849</v>
+        <v>853</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -10921,16 +10918,16 @@
         <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>1101</v>
+        <v>967</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>656</v>
+        <v>487</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>44</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>850</v>
+        <v>438</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -10951,16 +10948,16 @@
         <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>1101</v>
+        <v>967</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>851</v>
+        <v>854</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>44</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>852</v>
+        <v>855</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -11023,46 +11020,46 @@
         <v>5</v>
       </c>
       <c r="D9" s="7">
-        <v>1806</v>
+        <v>1826</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>223</v>
+        <v>278</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>218</v>
+        <v>93</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>401</v>
+        <v>364</v>
       </c>
       <c r="H9" s="7">
         <v>3</v>
       </c>
       <c r="I9" s="7">
-        <v>3133</v>
+        <v>3041</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>658</v>
+        <v>672</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>700</v>
+        <v>857</v>
       </c>
       <c r="M9" s="7">
         <v>8</v>
       </c>
       <c r="N9" s="7">
-        <v>4939</v>
+        <v>4867</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>742</v>
+        <v>858</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>854</v>
+        <v>859</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>510</v>
+        <v>860</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -11074,46 +11071,46 @@
         <v>9</v>
       </c>
       <c r="D10" s="7">
-        <v>8265</v>
+        <v>7829</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>855</v>
+        <v>861</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>857</v>
+        <v>862</v>
       </c>
       <c r="H10" s="7">
         <v>13</v>
       </c>
       <c r="I10" s="7">
-        <v>7968</v>
+        <v>7288</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>74</v>
+        <v>863</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>858</v>
+        <v>864</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>639</v>
+        <v>865</v>
       </c>
       <c r="M10" s="7">
         <v>22</v>
       </c>
       <c r="N10" s="7">
-        <v>16233</v>
+        <v>15117</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>497</v>
+        <v>683</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>859</v>
+        <v>732</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>860</v>
+        <v>866</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -11125,46 +11122,46 @@
         <v>63</v>
       </c>
       <c r="D11" s="7">
-        <v>64374</v>
+        <v>64643</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>861</v>
+        <v>867</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>862</v>
+        <v>868</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>863</v>
+        <v>869</v>
       </c>
       <c r="H11" s="7">
         <v>45</v>
       </c>
       <c r="I11" s="7">
-        <v>30608</v>
+        <v>27934</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>864</v>
+        <v>870</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>865</v>
+        <v>871</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>866</v>
+        <v>872</v>
       </c>
       <c r="M11" s="7">
         <v>108</v>
       </c>
       <c r="N11" s="7">
-        <v>94982</v>
+        <v>92578</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>867</v>
+        <v>873</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>868</v>
+        <v>874</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>869</v>
+        <v>875</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -11176,16 +11173,16 @@
         <v>1</v>
       </c>
       <c r="D12" s="7">
-        <v>1206</v>
+        <v>972</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>541</v>
+        <v>54</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>44</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>870</v>
+        <v>876</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -11206,16 +11203,16 @@
         <v>1</v>
       </c>
       <c r="N12" s="7">
-        <v>1206</v>
+        <v>972</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>871</v>
+        <v>854</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>44</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -11227,46 +11224,46 @@
         <v>30</v>
       </c>
       <c r="D13" s="7">
-        <v>29130</v>
+        <v>28230</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>872</v>
+        <v>877</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>873</v>
+        <v>878</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>874</v>
+        <v>766</v>
       </c>
       <c r="H13" s="7">
         <v>23</v>
       </c>
       <c r="I13" s="7">
-        <v>18177</v>
+        <v>16979</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>875</v>
+        <v>879</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>876</v>
+        <v>880</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>877</v>
+        <v>391</v>
       </c>
       <c r="M13" s="7">
         <v>53</v>
       </c>
       <c r="N13" s="7">
-        <v>47307</v>
+        <v>45209</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>878</v>
+        <v>881</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>267</v>
+        <v>661</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>879</v>
+        <v>882</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -11278,7 +11275,7 @@
         <v>139</v>
       </c>
       <c r="D14" s="7">
-        <v>132281</v>
+        <v>130192</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>105</v>
@@ -11293,7 +11290,7 @@
         <v>119</v>
       </c>
       <c r="I14" s="7">
-        <v>90585</v>
+        <v>81508</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>105</v>
@@ -11308,7 +11305,7 @@
         <v>258</v>
       </c>
       <c r="N14" s="7">
-        <v>222866</v>
+        <v>211700</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>105</v>
@@ -11331,46 +11328,46 @@
         <v>15</v>
       </c>
       <c r="D15" s="7">
-        <v>18304</v>
+        <v>18091</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>300</v>
+        <v>214</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>880</v>
+        <v>883</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>196</v>
+        <v>568</v>
       </c>
       <c r="H15" s="7">
         <v>36</v>
       </c>
       <c r="I15" s="7">
-        <v>22954</v>
+        <v>21298</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>881</v>
+        <v>442</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>158</v>
+        <v>884</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>882</v>
+        <v>885</v>
       </c>
       <c r="M15" s="7">
         <v>51</v>
       </c>
       <c r="N15" s="7">
-        <v>41259</v>
+        <v>39388</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>439</v>
+        <v>886</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>420</v>
+        <v>566</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>196</v>
+        <v>887</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -11382,46 +11379,46 @@
         <v>18</v>
       </c>
       <c r="D16" s="7">
-        <v>17743</v>
+        <v>15920</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>374</v>
+        <v>136</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>883</v>
+        <v>137</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>145</v>
+        <v>228</v>
       </c>
       <c r="H16" s="7">
         <v>59</v>
       </c>
       <c r="I16" s="7">
-        <v>38328</v>
+        <v>33634</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>884</v>
+        <v>888</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>885</v>
+        <v>889</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>886</v>
+        <v>510</v>
       </c>
       <c r="M16" s="7">
         <v>77</v>
       </c>
       <c r="N16" s="7">
-        <v>56071</v>
+        <v>49554</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>887</v>
+        <v>890</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>673</v>
+        <v>372</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>888</v>
+        <v>891</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -11433,46 +11430,46 @@
         <v>59</v>
       </c>
       <c r="D17" s="7">
-        <v>61770</v>
+        <v>61509</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>889</v>
+        <v>892</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>741</v>
+        <v>855</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>495</v>
+        <v>893</v>
       </c>
       <c r="H17" s="7">
         <v>99</v>
       </c>
       <c r="I17" s="7">
-        <v>89374</v>
+        <v>138369</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>890</v>
+        <v>894</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>891</v>
+        <v>895</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>892</v>
+        <v>896</v>
       </c>
       <c r="M17" s="7">
         <v>158</v>
       </c>
       <c r="N17" s="7">
-        <v>151144</v>
+        <v>199878</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>68</v>
+        <v>897</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>572</v>
+        <v>155</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>893</v>
+        <v>898</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -11484,46 +11481,46 @@
         <v>8</v>
       </c>
       <c r="D18" s="7">
-        <v>5556</v>
+        <v>5548</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>894</v>
+        <v>201</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>895</v>
+        <v>899</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="H18" s="7">
         <v>6</v>
       </c>
       <c r="I18" s="7">
-        <v>5476</v>
+        <v>4975</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>515</v>
+        <v>298</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>896</v>
+        <v>414</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>507</v>
+        <v>136</v>
       </c>
       <c r="M18" s="7">
         <v>14</v>
       </c>
       <c r="N18" s="7">
-        <v>11032</v>
+        <v>10523</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>137</v>
+        <v>854</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>734</v>
+        <v>900</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>302</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -11535,46 +11532,46 @@
         <v>12</v>
       </c>
       <c r="D19" s="7">
-        <v>14089</v>
+        <v>13338</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>897</v>
+        <v>204</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>398</v>
+        <v>201</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>742</v>
+        <v>402</v>
       </c>
       <c r="H19" s="7">
         <v>21</v>
       </c>
       <c r="I19" s="7">
-        <v>16797</v>
+        <v>15363</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>898</v>
+        <v>56</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>271</v>
+        <v>901</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>899</v>
+        <v>453</v>
       </c>
       <c r="M19" s="7">
         <v>33</v>
       </c>
       <c r="N19" s="7">
-        <v>30886</v>
+        <v>28702</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>107</v>
+        <v>507</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>302</v>
+        <v>902</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>567</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -11586,46 +11583,46 @@
         <v>35</v>
       </c>
       <c r="D20" s="7">
-        <v>93478</v>
+        <v>285884</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>900</v>
+        <v>903</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>224</v>
+        <v>57</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>901</v>
+        <v>904</v>
       </c>
       <c r="H20" s="7">
         <v>56</v>
       </c>
       <c r="I20" s="7">
-        <v>42612</v>
+        <v>38703</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>902</v>
+        <v>457</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>628</v>
+        <v>905</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>903</v>
+        <v>690</v>
       </c>
       <c r="M20" s="7">
         <v>91</v>
       </c>
       <c r="N20" s="7">
-        <v>136090</v>
+        <v>324586</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>904</v>
+        <v>132</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>741</v>
+        <v>906</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -11637,28 +11634,28 @@
         <v>39</v>
       </c>
       <c r="D21" s="7">
-        <v>44305</v>
+        <v>43517</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>386</v>
+        <v>782</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>906</v>
+        <v>56</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>755</v>
+        <v>574</v>
       </c>
       <c r="H21" s="7">
         <v>68</v>
       </c>
       <c r="I21" s="7">
-        <v>56237</v>
+        <v>50394</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>908</v>
+        <v>450</v>
       </c>
       <c r="L21" s="7" t="s">
         <v>909</v>
@@ -11667,16 +11664,16 @@
         <v>107</v>
       </c>
       <c r="N21" s="7">
-        <v>100541</v>
+        <v>93912</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>910</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>421</v>
+        <v>911</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -11688,46 +11685,46 @@
         <v>630</v>
       </c>
       <c r="D22" s="7">
-        <v>699682</v>
+        <v>671313</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="H22" s="7">
         <v>686</v>
       </c>
       <c r="I22" s="7">
-        <v>518061</v>
+        <v>501330</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="M22" s="7">
         <v>1316</v>
       </c>
       <c r="N22" s="7">
-        <v>1217744</v>
+        <v>1172643</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -11739,46 +11736,46 @@
         <v>67</v>
       </c>
       <c r="D23" s="7">
-        <v>73815</v>
+        <v>69010</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>907</v>
+        <v>512</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>510</v>
+        <v>21</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>803</v>
+        <v>922</v>
       </c>
       <c r="H23" s="7">
         <v>61</v>
       </c>
       <c r="I23" s="7">
-        <v>41352</v>
+        <v>38021</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>69</v>
+        <v>910</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>632</v>
+        <v>923</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>572</v>
+        <v>447</v>
       </c>
       <c r="M23" s="7">
         <v>128</v>
       </c>
       <c r="N23" s="7">
-        <v>115167</v>
+        <v>107031</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>921</v>
+        <v>864</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>266</v>
+        <v>385</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -11790,28 +11787,28 @@
         <v>200</v>
       </c>
       <c r="D24" s="7">
-        <v>198082</v>
+        <v>189550</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>924</v>
+        <v>174</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="H24" s="7">
         <v>159</v>
       </c>
       <c r="I24" s="7">
-        <v>102441</v>
+        <v>94706</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>927</v>
+        <v>174</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>928</v>
@@ -11820,16 +11817,16 @@
         <v>359</v>
       </c>
       <c r="N24" s="7">
-        <v>300523</v>
+        <v>284256</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>929</v>
+        <v>777</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>478</v>
+        <v>355</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>930</v>
+        <v>591</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -11841,7 +11838,7 @@
         <v>1083</v>
       </c>
       <c r="D25" s="7">
-        <v>1226822</v>
+        <v>1373680</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>105</v>
@@ -11856,7 +11853,7 @@
         <v>1251</v>
       </c>
       <c r="I25" s="7">
-        <v>933633</v>
+        <v>936792</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>105</v>
@@ -11871,7 +11868,7 @@
         <v>2334</v>
       </c>
       <c r="N25" s="7">
-        <v>2160456</v>
+        <v>2310472</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>105</v>
@@ -11894,46 +11891,46 @@
         <v>10</v>
       </c>
       <c r="D26" s="7">
-        <v>10258</v>
+        <v>10421</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>297</v>
+        <v>92</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="H26" s="7">
         <v>13</v>
       </c>
       <c r="I26" s="7">
-        <v>6404</v>
+        <v>5905</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>223</v>
+        <v>547</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>54</v>
+        <v>487</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>906</v>
+        <v>931</v>
       </c>
       <c r="M26" s="7">
         <v>23</v>
       </c>
       <c r="N26" s="7">
-        <v>16662</v>
+        <v>16326</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>933</v>
+        <v>193</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>566</v>
+        <v>415</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>608</v>
+        <v>747</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -11954,37 +11951,37 @@
         <v>45</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>894</v>
+        <v>932</v>
       </c>
       <c r="H27" s="7">
         <v>4</v>
       </c>
       <c r="I27" s="7">
-        <v>3071</v>
+        <v>2858</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>142</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>934</v>
+        <v>491</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>739</v>
+        <v>518</v>
       </c>
       <c r="M27" s="7">
         <v>4</v>
       </c>
       <c r="N27" s="7">
-        <v>3071</v>
+        <v>2858</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>371</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>936</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -11996,46 +11993,46 @@
         <v>8</v>
       </c>
       <c r="D28" s="7">
-        <v>9326</v>
+        <v>9874</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>684</v>
+        <v>276</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>314</v>
+        <v>381</v>
       </c>
       <c r="H28" s="7">
         <v>23</v>
       </c>
       <c r="I28" s="7">
-        <v>16239</v>
+        <v>16269</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>569</v>
+        <v>687</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>745</v>
+        <v>109</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>938</v>
+        <v>504</v>
       </c>
       <c r="M28" s="7">
         <v>31</v>
       </c>
       <c r="N28" s="7">
-        <v>25564</v>
+        <v>26142</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>242</v>
+        <v>608</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>417</v>
+        <v>935</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -12047,46 +12044,46 @@
         <v>4</v>
       </c>
       <c r="D29" s="7">
-        <v>6640</v>
+        <v>5965</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>939</v>
+        <v>547</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>213</v>
+        <v>936</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>516</v>
+        <v>937</v>
       </c>
       <c r="H29" s="7">
         <v>4</v>
       </c>
       <c r="I29" s="7">
-        <v>4656</v>
+        <v>4245</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>936</v>
+        <v>88</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>733</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>565</v>
+        <v>938</v>
       </c>
       <c r="M29" s="7">
         <v>8</v>
       </c>
       <c r="N29" s="7">
-        <v>11296</v>
+        <v>10211</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>940</v>
+        <v>415</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>941</v>
+        <v>398</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>542</v>
+        <v>858</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -12098,46 +12095,46 @@
         <v>6</v>
       </c>
       <c r="D30" s="7">
-        <v>7093</v>
+        <v>6787</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>111</v>
+        <v>506</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>194</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>375</v>
+        <v>939</v>
       </c>
       <c r="H30" s="7">
         <v>6</v>
       </c>
       <c r="I30" s="7">
-        <v>5257</v>
+        <v>4836</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>566</v>
+        <v>672</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>942</v>
+        <v>213</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>11</v>
+        <v>731</v>
       </c>
       <c r="M30" s="7">
         <v>12</v>
       </c>
       <c r="N30" s="7">
-        <v>12350</v>
+        <v>11623</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>418</v>
+        <v>303</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>146</v>
+        <v>116</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>138</v>
+        <v>931</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -12149,28 +12146,28 @@
         <v>5</v>
       </c>
       <c r="D31" s="7">
-        <v>3968</v>
+        <v>4046</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>163</v>
+        <v>780</v>
       </c>
       <c r="H31" s="7">
         <v>17</v>
       </c>
       <c r="I31" s="7">
-        <v>16254</v>
+        <v>15203</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>569</v>
+        <v>942</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>945</v>
+        <v>350</v>
       </c>
       <c r="L31" s="7" t="s">
         <v>399</v>
@@ -12179,16 +12176,16 @@
         <v>22</v>
       </c>
       <c r="N31" s="7">
-        <v>20222</v>
+        <v>19249</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>199</v>
+        <v>117</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>214</v>
+        <v>418</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>946</v>
+        <v>486</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -12200,46 +12197,46 @@
         <v>5</v>
       </c>
       <c r="D32" s="7">
-        <v>5819</v>
+        <v>5324</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>376</v>
+        <v>12</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>201</v>
+        <v>144</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>786</v>
+        <v>943</v>
       </c>
       <c r="H32" s="7">
         <v>11</v>
       </c>
       <c r="I32" s="7">
-        <v>12567</v>
+        <v>11262</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>214</v>
+        <v>22</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>28</v>
+        <v>935</v>
       </c>
       <c r="M32" s="7">
         <v>16</v>
       </c>
       <c r="N32" s="7">
-        <v>18387</v>
+        <v>16586</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>51</v>
+        <v>945</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>948</v>
+        <v>658</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>234</v>
+        <v>736</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -12251,46 +12248,46 @@
         <v>206</v>
       </c>
       <c r="D33" s="7">
-        <v>231283</v>
+        <v>226894</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="H33" s="7">
         <v>337</v>
       </c>
       <c r="I33" s="7">
-        <v>246426</v>
+        <v>229877</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="M33" s="7">
         <v>543</v>
       </c>
       <c r="N33" s="7">
-        <v>477709</v>
+        <v>456771</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -12302,46 +12299,46 @@
         <v>79</v>
       </c>
       <c r="D34" s="7">
-        <v>83622</v>
+        <v>79157</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="H34" s="7">
         <v>129</v>
       </c>
       <c r="I34" s="7">
-        <v>89318</v>
+        <v>81666</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="M34" s="7">
         <v>208</v>
       </c>
       <c r="N34" s="7">
-        <v>172940</v>
+        <v>160822</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>965</v>
+        <v>267</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -12353,46 +12350,46 @@
         <v>101</v>
       </c>
       <c r="D35" s="7">
-        <v>95873</v>
+        <v>90636</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>967</v>
+        <v>262</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>97</v>
+        <v>963</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
       <c r="H35" s="7">
         <v>98</v>
       </c>
       <c r="I35" s="7">
-        <v>66406</v>
+        <v>60872</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
       <c r="M35" s="7">
         <v>199</v>
       </c>
       <c r="N35" s="7">
-        <v>162279</v>
+        <v>151508</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>974</v>
+        <v>605</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -12404,7 +12401,7 @@
         <v>424</v>
       </c>
       <c r="D36" s="7">
-        <v>453882</v>
+        <v>439104</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>105</v>
@@ -12419,7 +12416,7 @@
         <v>642</v>
       </c>
       <c r="I36" s="7">
-        <v>466597</v>
+        <v>432992</v>
       </c>
       <c r="J36" s="7" t="s">
         <v>105</v>
@@ -12434,7 +12431,7 @@
         <v>1066</v>
       </c>
       <c r="N36" s="7">
-        <v>920479</v>
+        <v>872095</v>
       </c>
       <c r="O36" s="7" t="s">
         <v>105</v>
@@ -12457,46 +12454,46 @@
         <v>27</v>
       </c>
       <c r="D37" s="7">
-        <v>30787</v>
+        <v>30664</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>976</v>
+        <v>564</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>90</v>
+        <v>226</v>
       </c>
       <c r="H37" s="7">
         <v>53</v>
       </c>
       <c r="I37" s="7">
-        <v>31752</v>
+        <v>29513</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>94</v>
+        <v>670</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>506</v>
+        <v>374</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>977</v>
+        <v>440</v>
       </c>
       <c r="M37" s="7">
         <v>80</v>
       </c>
       <c r="N37" s="7">
-        <v>62539</v>
+        <v>60177</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>483</v>
+        <v>203</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>236</v>
+        <v>115</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>779</v>
+        <v>971</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -12508,46 +12505,46 @@
         <v>27</v>
       </c>
       <c r="D38" s="7">
-        <v>26944</v>
+        <v>23886</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>300</v>
+        <v>972</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>304</v>
+        <v>973</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>906</v>
+        <v>673</v>
       </c>
       <c r="H38" s="7">
         <v>86</v>
       </c>
       <c r="I38" s="7">
-        <v>63977</v>
+        <v>55162</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>978</v>
+        <v>149</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>358</v>
+        <v>311</v>
       </c>
       <c r="M38" s="7">
         <v>113</v>
       </c>
       <c r="N38" s="7">
-        <v>90921</v>
+        <v>79049</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>110</v>
+        <v>138</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>199</v>
+        <v>974</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>979</v>
+        <v>222</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -12559,46 +12556,46 @@
         <v>86</v>
       </c>
       <c r="D39" s="7">
-        <v>86069</v>
+        <v>86990</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>980</v>
+        <v>892</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>979</v>
+        <v>242</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>981</v>
+        <v>238</v>
       </c>
       <c r="H39" s="7">
         <v>130</v>
       </c>
       <c r="I39" s="7">
-        <v>111339</v>
+        <v>159921</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>982</v>
+        <v>975</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>983</v>
+        <v>976</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>206</v>
+        <v>977</v>
       </c>
       <c r="M39" s="7">
         <v>216</v>
       </c>
       <c r="N39" s="7">
-        <v>197409</v>
+        <v>246911</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>638</v>
+        <v>978</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>889</v>
+        <v>688</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>984</v>
+        <v>979</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -12610,46 +12607,46 @@
         <v>13</v>
       </c>
       <c r="D40" s="7">
-        <v>13297</v>
+        <v>12480</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>985</v>
+        <v>403</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>144</v>
+        <v>980</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>278</v>
+        <v>972</v>
       </c>
       <c r="H40" s="7">
         <v>10</v>
       </c>
       <c r="I40" s="7">
-        <v>10131</v>
+        <v>9220</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>500</v>
+        <v>403</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>986</v>
+        <v>373</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>12</v>
+        <v>566</v>
       </c>
       <c r="M40" s="7">
         <v>23</v>
       </c>
       <c r="N40" s="7">
-        <v>23429</v>
+        <v>21701</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>146</v>
+        <v>403</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>213</v>
+        <v>936</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>566</v>
+        <v>934</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -12661,46 +12658,46 @@
         <v>18</v>
       </c>
       <c r="D41" s="7">
-        <v>21181</v>
+        <v>20125</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>415</v>
+        <v>658</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>194</v>
+        <v>298</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>987</v>
+        <v>299</v>
       </c>
       <c r="H41" s="7">
         <v>27</v>
       </c>
       <c r="I41" s="7">
-        <v>22054</v>
+        <v>20199</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>372</v>
+        <v>753</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>204</v>
+        <v>304</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>988</v>
+        <v>981</v>
       </c>
       <c r="M41" s="7">
         <v>45</v>
       </c>
       <c r="N41" s="7">
-        <v>43235</v>
+        <v>40325</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>197</v>
+        <v>783</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>503</v>
+        <v>42</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>781</v>
+        <v>296</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -12712,46 +12709,46 @@
         <v>45</v>
       </c>
       <c r="D42" s="7">
-        <v>99252</v>
+        <v>291756</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>181</v>
+        <v>982</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>989</v>
+        <v>983</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>667</v>
+        <v>984</v>
       </c>
       <c r="H42" s="7">
         <v>76</v>
       </c>
       <c r="I42" s="7">
-        <v>61999</v>
+        <v>56946</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>43</v>
+        <v>450</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>990</v>
+        <v>49</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>364</v>
+        <v>550</v>
       </c>
       <c r="M42" s="7">
         <v>121</v>
       </c>
       <c r="N42" s="7">
-        <v>161251</v>
+        <v>348702</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>381</v>
+        <v>985</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>736</v>
+        <v>608</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>991</v>
+        <v>986</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -12763,46 +12760,46 @@
         <v>53</v>
       </c>
       <c r="D43" s="7">
-        <v>58389</v>
+        <v>56670</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>747</v>
+        <v>987</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>276</v>
+        <v>988</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>69</v>
+        <v>989</v>
       </c>
       <c r="H43" s="7">
         <v>92</v>
       </c>
       <c r="I43" s="7">
-        <v>76772</v>
+        <v>68945</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>61</v>
+        <v>990</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>798</v>
+        <v>856</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>793</v>
+        <v>991</v>
       </c>
       <c r="M43" s="7">
         <v>145</v>
       </c>
       <c r="N43" s="7">
-        <v>135161</v>
+        <v>125614</v>
       </c>
       <c r="O43" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="Q43" s="7" t="s">
         <v>992</v>
-      </c>
-      <c r="P43" s="7" t="s">
-        <v>517</v>
-      </c>
-      <c r="Q43" s="7" t="s">
-        <v>993</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -12814,46 +12811,46 @@
         <v>899</v>
       </c>
       <c r="D44" s="7">
-        <v>995340</v>
+        <v>962850</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>993</v>
+      </c>
+      <c r="F44" s="7" t="s">
         <v>994</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="G44" s="7" t="s">
         <v>995</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>996</v>
       </c>
       <c r="H44" s="7">
         <v>1068</v>
       </c>
       <c r="I44" s="7">
-        <v>795094</v>
+        <v>759142</v>
       </c>
       <c r="J44" s="7" t="s">
+        <v>996</v>
+      </c>
+      <c r="K44" s="7" t="s">
         <v>997</v>
       </c>
-      <c r="K44" s="7" t="s">
+      <c r="L44" s="7" t="s">
         <v>998</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>999</v>
       </c>
       <c r="M44" s="7">
         <v>1967</v>
       </c>
       <c r="N44" s="7">
-        <v>1790434</v>
+        <v>1721992</v>
       </c>
       <c r="O44" s="7" t="s">
+        <v>999</v>
+      </c>
+      <c r="P44" s="7" t="s">
         <v>1000</v>
       </c>
-      <c r="P44" s="7" t="s">
+      <c r="Q44" s="7" t="s">
         <v>1001</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>1002</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -12865,46 +12862,46 @@
         <v>147</v>
       </c>
       <c r="D45" s="7">
-        <v>158642</v>
+        <v>149139</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>1003</v>
+        <v>803</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>446</v>
+        <v>305</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>496</v>
+        <v>1002</v>
       </c>
       <c r="H45" s="7">
         <v>190</v>
       </c>
       <c r="I45" s="7">
-        <v>130670</v>
+        <v>119687</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>210</v>
+        <v>1003</v>
       </c>
       <c r="K45" s="7" t="s">
         <v>1004</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>207</v>
+        <v>1005</v>
       </c>
       <c r="M45" s="7">
         <v>337</v>
       </c>
       <c r="N45" s="7">
-        <v>289312</v>
+        <v>268825</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -12916,28 +12913,28 @@
         <v>331</v>
       </c>
       <c r="D46" s="7">
-        <v>323085</v>
+        <v>308416</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>291</v>
+        <v>1009</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>1009</v>
+        <v>958</v>
       </c>
       <c r="H46" s="7">
         <v>280</v>
       </c>
       <c r="I46" s="7">
-        <v>187024</v>
+        <v>172556</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>1011</v>
+        <v>851</v>
       </c>
       <c r="L46" s="7" t="s">
         <v>1012</v>
@@ -12946,16 +12943,16 @@
         <v>611</v>
       </c>
       <c r="N46" s="7">
-        <v>510109</v>
+        <v>480972</v>
       </c>
       <c r="O46" s="7" t="s">
         <v>1013</v>
       </c>
       <c r="P46" s="7" t="s">
+        <v>975</v>
+      </c>
+      <c r="Q46" s="7" t="s">
         <v>1014</v>
-      </c>
-      <c r="Q46" s="7" t="s">
-        <v>1015</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -12967,7 +12964,7 @@
         <v>1646</v>
       </c>
       <c r="D47" s="7">
-        <v>1812986</v>
+        <v>1942976</v>
       </c>
       <c r="E47" s="7" t="s">
         <v>105</v>
@@ -12982,7 +12979,7 @@
         <v>2012</v>
       </c>
       <c r="I47" s="7">
-        <v>1490814</v>
+        <v>1451292</v>
       </c>
       <c r="J47" s="7" t="s">
         <v>105</v>
@@ -12997,7 +12994,7 @@
         <v>3658</v>
       </c>
       <c r="N47" s="7">
-        <v>3303800</v>
+        <v>3394268</v>
       </c>
       <c r="O47" s="7" t="s">
         <v>105</v>
